--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/1.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/1.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04379480479550431</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.604376326943493</v>
+        <v>-1.627850461109011</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1058710012675264</v>
+        <v>0.09862736527130067</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0935210189614808</v>
+        <v>-0.09136933482266275</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03663984363891006</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.621893585744449</v>
+        <v>-1.645465309095487</v>
       </c>
       <c r="F3" t="n">
-        <v>0.127394138732192</v>
+        <v>0.1152930797276323</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09177385773683702</v>
+        <v>-0.08998734603416074</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.03562743190673621</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.76036004784527</v>
+        <v>-1.781094601730164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1038499607157764</v>
+        <v>0.09240998974216295</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08937033053861088</v>
+        <v>-0.08767038988760613</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04245976262732835</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.910902384644711</v>
+        <v>-1.922033847870549</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1752931146124933</v>
+        <v>0.1541477417369398</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1027699553182436</v>
+        <v>-0.09930081717489692</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.0542127801355648</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.884622561395474</v>
+        <v>-1.896753526763339</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2458154673232493</v>
+        <v>0.2177082078741829</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1546999941681959</v>
+        <v>-0.1469463759766687</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06572829480948914</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.85614304642422</v>
+        <v>-1.857630494493849</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3621276102917636</v>
+        <v>0.3269451348924506</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1605301609934937</v>
+        <v>-0.1526034006986234</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.07229317250071082</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.682361104308336</v>
+        <v>-1.67626650227066</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4316913853576475</v>
+        <v>0.3933970741555231</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1657165539981794</v>
+        <v>-0.1566250195535467</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.06838113077766991</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.385075325858714</v>
+        <v>-1.369565728446978</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5274673008505517</v>
+        <v>0.4792015785149875</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1703898167693212</v>
+        <v>-0.1588129061321546</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04930858544353024</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9752770865993983</v>
+        <v>-0.9499692201575651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5134963071298868</v>
+        <v>0.4675522629982411</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1453518946067911</v>
+        <v>-0.1327266872348383</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.009228882939926127</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4008325122042271</v>
+        <v>-0.3837575527763572</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4821087918320298</v>
+        <v>0.4302606019763852</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1277338985820725</v>
+        <v>-0.1129916354919703</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.05848608389044138</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2888334099083971</v>
+        <v>0.294847736970887</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4010058825878906</v>
+        <v>0.3397419103486252</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04650191976998665</v>
+        <v>-0.03331950962909339</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1578794961267912</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9995124872903854</v>
+        <v>0.9918186818254676</v>
       </c>
       <c r="F13" t="n">
-        <v>0.176176139339543</v>
+        <v>0.1073537272797917</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05374421002741156</v>
+        <v>0.06626553213735853</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2876361896501343</v>
       </c>
       <c r="E14" t="n">
-        <v>1.738147718285795</v>
+        <v>1.714666501034232</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1136684637141296</v>
+        <v>-0.1847810735953734</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1851779546942616</v>
+        <v>0.1960780371092689</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4377417495513325</v>
       </c>
       <c r="E15" t="n">
-        <v>2.443043849416125</v>
+        <v>2.414738263557775</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4109991017087082</v>
+        <v>-0.4865268352252004</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3045625829875548</v>
+        <v>0.3143718701515008</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5984038816559146</v>
       </c>
       <c r="E16" t="n">
-        <v>3.112535568451038</v>
+        <v>3.069284671035938</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7310695939487178</v>
+        <v>-0.8092117732256905</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4345623962349</v>
+        <v>0.4437672600562664</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7613429994094364</v>
       </c>
       <c r="E17" t="n">
-        <v>3.903604524415217</v>
+        <v>3.827856428221742</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.139234001360124</v>
+        <v>-1.209814592778368</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5953327092845522</v>
+        <v>0.6020159944735949</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9183839954423932</v>
       </c>
       <c r="E18" t="n">
-        <v>4.486046689965717</v>
+        <v>4.393311779415165</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.486022681174652</v>
+        <v>-1.555399147965101</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7255402930559091</v>
+        <v>0.7350961631413255</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.064541822417072</v>
       </c>
       <c r="E19" t="n">
-        <v>5.093665291361421</v>
+        <v>4.974527784070172</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.886171396210834</v>
+        <v>-1.952500561982445</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9111675160691417</v>
+        <v>0.9148286845452871</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.193461842029156</v>
       </c>
       <c r="E20" t="n">
-        <v>5.519771155726973</v>
+        <v>5.386554047395689</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.270016421188584</v>
+        <v>-2.330541391450399</v>
       </c>
       <c r="G20" t="n">
-        <v>1.084019999893898</v>
+        <v>1.083845283771434</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.302669550865416</v>
       </c>
       <c r="E21" t="n">
-        <v>5.870287899830302</v>
+        <v>5.726320240900534</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.687030751109503</v>
+        <v>-2.734686541035563</v>
       </c>
       <c r="G21" t="n">
-        <v>1.274372428309275</v>
+        <v>1.265502830560746</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.390172888638731</v>
       </c>
       <c r="E22" t="n">
-        <v>6.142959954270584</v>
+        <v>5.987300481307795</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.034044515658377</v>
+        <v>-3.069571701245255</v>
       </c>
       <c r="G22" t="n">
-        <v>1.403495512906056</v>
+        <v>1.390961598643139</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.455768773397078</v>
       </c>
       <c r="E23" t="n">
-        <v>6.383104903569187</v>
+        <v>6.215026419739336</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.299380853983837</v>
+        <v>-3.32125184967431</v>
       </c>
       <c r="G23" t="n">
-        <v>1.497949252337068</v>
+        <v>1.485130440613195</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.502247827040145</v>
       </c>
       <c r="E24" t="n">
-        <v>6.436873396752818</v>
+        <v>6.269575626407132</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.525676009034116</v>
+        <v>-3.535915790427737</v>
       </c>
       <c r="G24" t="n">
-        <v>1.607061831844753</v>
+        <v>1.588855152668668</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.531501784950885</v>
       </c>
       <c r="E25" t="n">
-        <v>6.471538019861224</v>
+        <v>6.301115821559756</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.672186495854344</v>
+        <v>-3.677255624434493</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658779378113329</v>
+        <v>1.639041178332219</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.548981713244502</v>
       </c>
       <c r="E26" t="n">
-        <v>6.415844501292241</v>
+        <v>6.252524277266082</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.841106292904531</v>
+        <v>-3.829397164661175</v>
       </c>
       <c r="G26" t="n">
-        <v>1.699025473025867</v>
+        <v>1.678393230383857</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.557171504783448</v>
       </c>
       <c r="E27" t="n">
-        <v>6.29267435701222</v>
+        <v>6.140121997794878</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.961266125615065</v>
+        <v>-3.930721497556664</v>
       </c>
       <c r="G27" t="n">
-        <v>1.717386406075839</v>
+        <v>1.695306065842233</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.55653335340413</v>
       </c>
       <c r="E28" t="n">
-        <v>6.083225928617223</v>
+        <v>5.936731968997767</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.961770598743442</v>
+        <v>-3.924825221928272</v>
       </c>
       <c r="G28" t="n">
-        <v>1.707638505657624</v>
+        <v>1.683565457216451</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.548093598675951</v>
       </c>
       <c r="E29" t="n">
-        <v>5.947534462227254</v>
+        <v>5.803348014639626</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.901883893235314</v>
+        <v>-3.860713849098574</v>
       </c>
       <c r="G29" t="n">
-        <v>1.660817732875414</v>
+        <v>1.636093040518023</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.530025899890676</v>
       </c>
       <c r="E30" t="n">
-        <v>5.704781363244655</v>
+        <v>5.572998186332877</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.816629508558745</v>
+        <v>-3.772923719617588</v>
       </c>
       <c r="G30" t="n">
-        <v>1.631177378802201</v>
+        <v>1.604395443453269</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.504311529253566</v>
       </c>
       <c r="E31" t="n">
-        <v>5.489375272475535</v>
+        <v>5.364609072806515</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.688097468142012</v>
+        <v>-3.646343462911269</v>
       </c>
       <c r="G31" t="n">
-        <v>1.538048963471324</v>
+        <v>1.512508929209099</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.471545705935235</v>
       </c>
       <c r="E32" t="n">
-        <v>5.246389218662984</v>
+        <v>5.132006823137185</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.561460546747326</v>
+        <v>-3.520490403038991</v>
       </c>
       <c r="G32" t="n">
-        <v>1.432780138657855</v>
+        <v>1.412410757209103</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.433390689969331</v>
       </c>
       <c r="E33" t="n">
-        <v>4.907578454764769</v>
+        <v>4.808992915140342</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.354812298369123</v>
+        <v>-3.324916166188698</v>
       </c>
       <c r="G33" t="n">
-        <v>1.313692999978488</v>
+        <v>1.298100766562883</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.392818657428702</v>
       </c>
       <c r="E34" t="n">
-        <v>4.579406486107424</v>
+        <v>4.489504809975214</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.238935371687648</v>
+        <v>-3.211789050912136</v>
       </c>
       <c r="G34" t="n">
-        <v>1.216251772255247</v>
+        <v>1.204361631812942</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.349323846070878</v>
       </c>
       <c r="E35" t="n">
-        <v>4.216242498364444</v>
+        <v>4.139808129834083</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.086445973235159</v>
+        <v>-3.067585289114173</v>
       </c>
       <c r="G35" t="n">
-        <v>1.095560708091275</v>
+        <v>1.086837494121026</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.30464637922367</v>
       </c>
       <c r="E36" t="n">
-        <v>3.898189898637942</v>
+        <v>3.830436245561554</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.985338854978409</v>
+        <v>-2.968455138873777</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9876695674217191</v>
+        <v>0.9805833333376234</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.256760935520341</v>
       </c>
       <c r="E37" t="n">
-        <v>3.561543411031515</v>
+        <v>3.501933732888737</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.844778947446258</v>
+        <v>-2.831661072089338</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9064564768390888</v>
+        <v>0.9016242381366957</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.204361613636226</v>
       </c>
       <c r="E38" t="n">
-        <v>3.202816583191482</v>
+        <v>3.15223075667112</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.711480777130227</v>
+        <v>-2.702367206417896</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8221346984918896</v>
+        <v>0.8195501590947138</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.147763871830611</v>
       </c>
       <c r="E39" t="n">
-        <v>2.869266191196653</v>
+        <v>2.826053070240464</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.556330499353179</v>
+        <v>-2.553844336151085</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7417086174699097</v>
+        <v>0.7397096131858578</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.086284542202877</v>
       </c>
       <c r="E40" t="n">
-        <v>2.631230427520593</v>
+        <v>2.588607563734891</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.416740974609309</v>
+        <v>-2.418978442790238</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7006062561553849</v>
+        <v>0.6972236890637097</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.022806226874853</v>
       </c>
       <c r="E41" t="n">
-        <v>2.423924239149685</v>
+        <v>2.381353317994987</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.298812314003219</v>
+        <v>-2.303415532923463</v>
       </c>
       <c r="G41" t="n">
-        <v>0.611192525950778</v>
+        <v>0.6104118124666128</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9582239705210281</v>
       </c>
       <c r="E42" t="n">
-        <v>2.176650557250711</v>
+        <v>2.133952140547188</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.236210425510848</v>
+        <v>-2.236448102398165</v>
       </c>
       <c r="G42" t="n">
-        <v>0.555835847473754</v>
+        <v>0.552254953972795</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8936046817511767</v>
       </c>
       <c r="E43" t="n">
-        <v>1.942142170425486</v>
+        <v>1.900599083756997</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.139260291753454</v>
+        <v>-2.141219158549912</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4905093318824116</v>
+        <v>0.4889904034303564</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8304224174458342</v>
       </c>
       <c r="E44" t="n">
-        <v>1.709258171333442</v>
+        <v>1.668905043120657</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.085476058378609</v>
+        <v>-2.083935093658856</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4475590721194798</v>
+        <v>0.4438129066107841</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7687606545350294</v>
       </c>
       <c r="E45" t="n">
-        <v>1.492915539187148</v>
+        <v>1.453742925315338</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.027918901170007</v>
+        <v>-2.022736443213125</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3609140415492408</v>
+        <v>0.360548869113099</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7105547758533289</v>
       </c>
       <c r="E46" t="n">
-        <v>1.296211943617323</v>
+        <v>1.255828909041232</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.955698968836928</v>
+        <v>-1.950887979392673</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3083355068213126</v>
+        <v>0.3065505691377576</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6551517579752165</v>
       </c>
       <c r="E47" t="n">
-        <v>1.104161148570062</v>
+        <v>1.068027965621483</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.870469768466299</v>
+        <v>-1.867973374139916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2943944194639524</v>
+        <v>0.2900013320964022</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6029406016040011</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9439417422128646</v>
+        <v>0.907279688839529</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.814906106474824</v>
+        <v>-1.812046900740981</v>
       </c>
       <c r="G48" t="n">
-        <v>0.226639192368443</v>
+        <v>0.2233793987682293</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5541589934127448</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8138836902580314</v>
+        <v>0.776809243874915</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.773653426334215</v>
+        <v>-1.770529785387994</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1898354772741903</v>
+        <v>0.1859020034900599</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5083147137420283</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7231619501636237</v>
+        <v>0.6837264750985562</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.696059005711455</v>
+        <v>-1.694702201228894</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1572186530425975</v>
+        <v>0.152902692611991</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4670883897139307</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6150378546641155</v>
+        <v>0.5734522694793514</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.61688584391003</v>
+        <v>-1.618565322312458</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1247104361303744</v>
+        <v>0.1191604447086681</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4297838870942921</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4530161964130292</v>
+        <v>0.418183153258645</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.562495613173485</v>
+        <v>-1.565568885507825</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0739514675066698</v>
+        <v>0.07135590997564495</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.397609813683439</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3668276313879675</v>
+        <v>0.332762709564778</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.552999555814678</v>
+        <v>-1.554302056637554</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01224204785607633</v>
+        <v>0.01248602081987793</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3710196510137464</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2722196380830683</v>
+        <v>0.2387528435259731</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.502517614556323</v>
+        <v>-1.507884232750397</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02056838072743651</v>
+        <v>-0.01948388155286034</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3492938822930263</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1681061433046343</v>
+        <v>0.1375575801984306</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.493885693695109</v>
+        <v>-1.498829687755115</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03322506848181534</v>
+        <v>-0.03379328938460489</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3327715730889928</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04819894066306923</v>
+        <v>0.02401256284516287</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.496096403550976</v>
+        <v>-1.501579499160027</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0866913499941571</v>
+        <v>-0.08540537637205445</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3198848204759341</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0120733995297767</v>
+        <v>-0.03594339950430163</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.500325005920351</v>
+        <v>-1.50470471412537</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08957810106262257</v>
+        <v>-0.09060121349146802</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3108151906202438</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1317791277238153</v>
+        <v>-0.1517156539142098</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.52283269234539</v>
+        <v>-1.524201301971361</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1509443845447725</v>
+        <v>-0.1476200561605854</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3040503623718065</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2175883541406436</v>
+        <v>-0.2350095977751996</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.534696861472194</v>
+        <v>-1.535189529457161</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.197190640347708</v>
+        <v>-0.1923615496835575</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2987852383760355</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3292665848160487</v>
+        <v>-0.3437129323113464</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.522294377805905</v>
+        <v>-1.524924563757599</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2333348414301357</v>
+        <v>-0.2266059096865752</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2942266251133528</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4315636615285017</v>
+        <v>-0.4427801217868904</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.575032675474645</v>
+        <v>-1.573845078047624</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2459616228212098</v>
+        <v>-0.2403266343669533</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2888516992067982</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5353780926738886</v>
+        <v>-0.5411405766769704</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.599903751610317</v>
+        <v>-1.600664002845906</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2677303072687983</v>
+        <v>-0.2613445116936814</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2827407162809273</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6460583952263891</v>
+        <v>-0.6451501861933985</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.658742947393219</v>
+        <v>-1.658162134337459</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3088657229848705</v>
+        <v>-0.3015544041664288</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2750920610790339</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7481933479693481</v>
+        <v>-0.7413432167534475</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.741765372955784</v>
+        <v>-1.734262810814105</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3708537440199342</v>
+        <v>-0.3595507127098739</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2660380646916677</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8482812888450555</v>
+        <v>-0.838646717803574</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.826501905341446</v>
+        <v>-1.813387178022769</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3994568194922103</v>
+        <v>-0.3878122260328278</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2561645857524734</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9121675769404078</v>
+        <v>-0.9028840121629764</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.864036752317543</v>
+        <v>-1.851320251836555</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4436489803418484</v>
+        <v>-0.430455552067106</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2459366152939132</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.010067631237507</v>
+        <v>-0.9964665320103482</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.884374653383869</v>
+        <v>-1.872687561408212</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4805786169658051</v>
+        <v>-0.4653735922540405</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2365688292749154</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.048183291269364</v>
+        <v>-1.033086086867409</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.903130665233288</v>
+        <v>-1.893344988356162</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5020136093596779</v>
+        <v>-0.486529983263443</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2288145439638901</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.068647900874955</v>
+        <v>-1.054081140916878</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.990991625574732</v>
+        <v>-1.977502281705185</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5401080201333971</v>
+        <v>-0.5217644012937589</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.2228994320176335</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.064093476547471</v>
+        <v>-1.049891889025536</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.015961077905486</v>
+        <v>-2.001800414880704</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5685253613493597</v>
+        <v>-0.5492089986927577</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2188080751635638</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.04598753459515</v>
+        <v>-1.036737811228826</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.052631788383988</v>
+        <v>-2.037275657836579</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5624354813690474</v>
+        <v>-0.5443987962580628</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2157906324401182</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.050075262253168</v>
+        <v>-1.03789156724474</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.101324069901425</v>
+        <v>-2.085205327089745</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5681948173338867</v>
+        <v>-0.5503863649954907</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2138237502259078</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9267351239080457</v>
+        <v>-0.9231455733019195</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.055653905096886</v>
+        <v>-2.047160497918347</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5761420398773338</v>
+        <v>-0.5589144005946978</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2122805609016092</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7911199974454605</v>
+        <v>-0.796378795329726</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.063594831563848</v>
+        <v>-2.059179707928599</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5755092841905709</v>
+        <v>-0.557806291133302</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2112219555027615</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6776253487040743</v>
+        <v>-0.6879131376808956</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.036778267794248</v>
+        <v>-2.036639754111573</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5685348054640875</v>
+        <v>-0.5525049947327614</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2109461608463758</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5174075163659986</v>
+        <v>-0.5353324461193708</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.998830240798809</v>
+        <v>-2.004945305085063</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5487210527651545</v>
+        <v>-0.5334357530782036</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.21165796974297</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3598466283046785</v>
+        <v>-0.3850828768764924</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.964017659893002</v>
+        <v>-1.97185627511708</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4848032842873762</v>
+        <v>-0.4749877010469451</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2142986182547463</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1693005955373811</v>
+        <v>-0.2020606555090123</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.972064832650652</v>
+        <v>-1.978904732742264</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4384877716431034</v>
+        <v>-0.4331770311278349</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2189911884979213</v>
       </c>
       <c r="E79" t="n">
-        <v>0.05184909100536553</v>
+        <v>0.01087265122054473</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.915900682364401</v>
+        <v>-1.927647587066668</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4119513832770951</v>
+        <v>-0.4074481145710538</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2263185214150643</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2351939862927122</v>
+        <v>0.1898984380390424</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.82564721295858</v>
+        <v>-1.843378538360032</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3593775706065309</v>
+        <v>-0.3570291340775502</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2368502846221332</v>
       </c>
       <c r="E81" t="n">
-        <v>0.469645708429571</v>
+        <v>0.4196044925251795</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.789293667333019</v>
+        <v>-1.807049390030852</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3057916636409703</v>
+        <v>-0.3065534888956798</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2499573816530643</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7214431212831633</v>
+        <v>0.663377555898381</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.742925425048183</v>
+        <v>-1.761611393046704</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2588733016732394</v>
+        <v>-0.2620622644129945</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2659536772574134</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9424495720858715</v>
+        <v>0.8836788461347466</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.695453008349754</v>
+        <v>-1.71324886853518</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2149282618256455</v>
+        <v>-0.2181534270051906</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2837044099909857</v>
       </c>
       <c r="E84" t="n">
-        <v>1.160586586030449</v>
+        <v>1.099626399481594</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.646571844537762</v>
+        <v>-1.660591632851187</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1666153189164421</v>
+        <v>-0.1716144036456931</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3025147289624537</v>
       </c>
       <c r="E85" t="n">
-        <v>1.416753475964772</v>
+        <v>1.347273123912317</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.580203328288118</v>
+        <v>-1.588913163095835</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1187352312655965</v>
+        <v>-0.1248455734944858</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3203190554089922</v>
       </c>
       <c r="E86" t="n">
-        <v>1.607233399928975</v>
+        <v>1.540721647939293</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.505594821938465</v>
+        <v>-1.511847612897832</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07777138363374611</v>
+        <v>-0.08496150297984766</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3345812555209459</v>
       </c>
       <c r="E87" t="n">
-        <v>1.781055479532452</v>
+        <v>1.717682321670644</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.417751962816917</v>
+        <v>-1.420283772573529</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02469545886348691</v>
+        <v>-0.03397587560267577</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.343065730911721</v>
       </c>
       <c r="E88" t="n">
-        <v>1.917267946251571</v>
+        <v>1.856570620895974</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.31071866256847</v>
+        <v>-1.308902244502489</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01456057802175224</v>
+        <v>0.003821045557117645</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.3431925399060657</v>
       </c>
       <c r="E89" t="n">
-        <v>2.006776117603456</v>
+        <v>1.9508480701854</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.157761780436954</v>
+        <v>-1.153258511730913</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05032386647682516</v>
+        <v>0.03834872900196953</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3329072297720329</v>
       </c>
       <c r="E90" t="n">
-        <v>2.078995262926974</v>
+        <v>2.02734225144237</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.018842787838759</v>
+        <v>-1.010294289990975</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06944819880062852</v>
+        <v>0.05739436036970785</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3105496648405706</v>
       </c>
       <c r="E91" t="n">
-        <v>2.11692912375032</v>
+        <v>2.070643517469353</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8357395044865317</v>
+        <v>-0.8259766508866642</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05042302968146711</v>
+        <v>0.04093799045650916</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2755358193355628</v>
       </c>
       <c r="E92" t="n">
-        <v>2.175509393387768</v>
+        <v>2.128446221660878</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6317977819874048</v>
+        <v>-0.6223930177376332</v>
       </c>
       <c r="G92" t="n">
-        <v>0.07170376820145241</v>
+        <v>0.0593288298697864</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2292815147018519</v>
       </c>
       <c r="E93" t="n">
-        <v>2.16626517908837</v>
+        <v>2.121566184081673</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4875279113863477</v>
+        <v>-0.475667677307347</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06067776425674109</v>
+        <v>0.04907724333275502</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1744640121045874</v>
       </c>
       <c r="E94" t="n">
-        <v>2.149586872479067</v>
+        <v>2.105172774933326</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2884349547903876</v>
+        <v>-0.2791907404909886</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03270272241386397</v>
+        <v>0.02113997794878911</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1156799609849933</v>
       </c>
       <c r="E95" t="n">
-        <v>2.047023786535115</v>
+        <v>2.009549539295188</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1083577231988611</v>
+        <v>-0.105211258975381</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01138892949233135</v>
+        <v>0.001996757395530148</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05747814523173059</v>
       </c>
       <c r="E96" t="n">
-        <v>1.960363015773662</v>
+        <v>1.924160575983747</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.006949967289942962</v>
+        <v>-0.001829683088351824</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03594025146605903</v>
+        <v>-0.04278408660547442</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.004038241092750102</v>
       </c>
       <c r="E97" t="n">
-        <v>1.761425887070711</v>
+        <v>1.734239428807606</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06850221330872681</v>
+        <v>0.07141572270225438</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06418759861692117</v>
+        <v>-0.07007128209234315</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04231517273891919</v>
       </c>
       <c r="E98" t="n">
-        <v>1.585038156299514</v>
+        <v>1.565055983554601</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1092960668754767</v>
+        <v>0.1132200965448793</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08159939813674938</v>
+        <v>-0.08658746473215126</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08161713643167566</v>
       </c>
       <c r="E99" t="n">
-        <v>1.424714864680311</v>
+        <v>1.407035481909861</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1185450032322396</v>
+        <v>0.1224029240985476</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1103645975785194</v>
+        <v>-0.1140131739016945</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1147795113331066</v>
       </c>
       <c r="E100" t="n">
-        <v>1.245933050825615</v>
+        <v>1.23376588301796</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1355979263924112</v>
+        <v>0.1397675030447368</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1069899005824508</v>
+        <v>-0.1116175167990748</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1412378765458647</v>
       </c>
       <c r="E101" t="n">
-        <v>1.105322774681581</v>
+        <v>1.095269514553834</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1030125825432444</v>
+        <v>0.1115783946013627</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1416891521115244</v>
+        <v>-0.1450717192031996</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1614851665604822</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9481302070946458</v>
+        <v>0.9417601517107419</v>
       </c>
       <c r="F102" t="n">
-        <v>0.09626633658934965</v>
+        <v>0.1053641671104676</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1030737410086547</v>
+        <v>-0.1118693598584829</v>
       </c>
     </row>
   </sheetData>
